--- a/Assets/Excel/EdibleItemInfo.xlsx
+++ b/Assets/Excel/EdibleItemInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\MStudio3DRPG\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6C9411-98B2-4505-B54D-20FBFCCDFE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96A6E97-9F16-4431-B2D6-76CDE2220762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,7 +478,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
